--- a/Project/Resultat/Analyse des resultats.xlsx
+++ b/Project/Resultat/Analyse des resultats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claudedb\Documents\GitHub\RecSys\Project\Resultat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikap\OneDrive\Documents\GitHub\RecSys\Project\Resultat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F230F8CC-F1F6-4DAD-B504-F14154DFDBDD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="10_ncr:100000_{F230F8CC-F1F6-4DAD-B504-F14154DFDBDD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{8912E6F1-3867-4DF5-8D9B-06BE1392187A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" firstSheet="2" activeTab="9" xr2:uid="{D030182A-CDE3-42A1-BF6B-B30E0474A4FF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" firstSheet="3" activeTab="8" xr2:uid="{D030182A-CDE3-42A1-BF6B-B30E0474A4FF}"/>
   </bookViews>
   <sheets>
     <sheet name="CIV4510" sheetId="3" r:id="rId1"/>
@@ -26,21 +26,28 @@
     <sheet name="Resultat" sheetId="12" r:id="rId11"/>
     <sheet name="Analyse" sheetId="14" r:id="rId12"/>
     <sheet name="Mapping" sheetId="13" r:id="rId13"/>
+    <sheet name="Exploration" sheetId="15" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId14"/>
+    <pivotCache cacheId="0" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="291">
   <si>
     <t>terme.terme</t>
   </si>
@@ -904,6 +911,15 @@
   </si>
   <si>
     <t>Average of Note</t>
+  </si>
+  <si>
+    <t>MTH2302</t>
+  </si>
+  <si>
+    <t>Aérodynamique</t>
+  </si>
+  <si>
+    <t>Thermodynamique</t>
   </si>
 </sst>
 </file>
@@ -983,6 +999,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -995,11 +1016,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5907,7 +5923,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0585561C-D051-4A75-ADE0-04B171AA352D}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0585561C-D051-4A75-ADE0-04B171AA352D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -6328,7 +6344,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6630,27 +6646,27 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.83984375" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -6691,7 +6707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>218</v>
       </c>
@@ -6714,7 +6730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>219</v>
       </c>
@@ -6737,7 +6753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>221</v>
       </c>
@@ -6760,7 +6776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -6783,7 +6799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -6806,7 +6822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -6829,7 +6845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -6852,7 +6868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -6875,7 +6891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -6898,7 +6914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>229</v>
       </c>
@@ -6938,33 +6954,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534D7B6C-29EA-4A2A-B351-F3E15F668E14}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" ht="157.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -7005,7 +7021,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -7046,7 +7062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -7087,7 +7103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -7128,7 +7144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>127</v>
       </c>
@@ -7169,7 +7185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -7210,7 +7226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -7251,7 +7267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -7292,7 +7308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>140</v>
       </c>
@@ -7333,7 +7349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -7374,7 +7390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -7434,19 +7450,19 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFBE396-7256-413C-88E3-204C4A5F543B}">
-  <dimension ref="A1:F601"/>
+  <dimension ref="A1:J601"/>
   <sheetViews>
-    <sheetView topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="H608" sqref="H608"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="7.5234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -7466,7 +7482,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -7487,7 +7503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>ROW()-1</f>
         <v>2</v>
@@ -7508,7 +7524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A11" si="0">ROW()-1</f>
         <v>3</v>
@@ -7529,7 +7545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7549,8 +7565,12 @@
       <c r="F5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="J5">
+        <f>AVERAGE(F2:F301)</f>
+        <v>3.2333333333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7570,8 +7590,12 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="J6">
+        <f>AVERAGE(F302:F601)</f>
+        <v>2.9033333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7592,7 +7616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7613,7 +7637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7634,7 +7658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7655,7 +7679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7676,7 +7700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" ref="A12:A21" si="1">ROW()-1</f>
         <v>11</v>
@@ -7697,7 +7721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -7718,7 +7742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -7739,7 +7763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -7760,7 +7784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -7781,7 +7805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -7802,7 +7826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -7823,7 +7847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -7844,7 +7868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -7865,7 +7889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -7886,7 +7910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" ref="A22:A31" si="2">ROW()-1</f>
         <v>21</v>
@@ -7907,7 +7931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -7928,7 +7952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -7949,7 +7973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -7970,7 +7994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -7991,7 +8015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -8012,7 +8036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -8033,7 +8057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -8054,7 +8078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -8075,7 +8099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -8096,7 +8120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" ref="A32:A41" si="3">ROW()-1</f>
         <v>31</v>
@@ -8117,7 +8141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -8138,7 +8162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -8159,7 +8183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -8180,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -8201,7 +8225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -8222,7 +8246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="3"/>
         <v>37</v>
@@ -8243,7 +8267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="3"/>
         <v>38</v>
@@ -8264,7 +8288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="3"/>
         <v>39</v>
@@ -8285,7 +8309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -8306,7 +8330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" ref="A42:A51" si="4">ROW()-1</f>
         <v>41</v>
@@ -8327,7 +8351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="4"/>
         <v>42</v>
@@ -8348,7 +8372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -8369,7 +8393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -8390,7 +8414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -8411,7 +8435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="4"/>
         <v>46</v>
@@ -8432,7 +8456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="4"/>
         <v>47</v>
@@ -8453,7 +8477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -8474,7 +8498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -8495,7 +8519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -8516,7 +8540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" ref="A52:A61" si="5">ROW()-1</f>
         <v>51</v>
@@ -8537,7 +8561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="5"/>
         <v>52</v>
@@ -8558,7 +8582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="5"/>
         <v>53</v>
@@ -8579,7 +8603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="5"/>
         <v>54</v>
@@ -8600,7 +8624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="5"/>
         <v>55</v>
@@ -8621,7 +8645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="5"/>
         <v>56</v>
@@ -8642,7 +8666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="5"/>
         <v>57</v>
@@ -8663,7 +8687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="5"/>
         <v>58</v>
@@ -8684,7 +8708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="5"/>
         <v>59</v>
@@ -8705,7 +8729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="5"/>
         <v>60</v>
@@ -8726,7 +8750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" ref="A62:A93" si="6">ROW()-1</f>
         <v>61</v>
@@ -8747,7 +8771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="6"/>
         <v>62</v>
@@ -8768,7 +8792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="6"/>
         <v>63</v>
@@ -8789,7 +8813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="6"/>
         <v>64</v>
@@ -8810,7 +8834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="6"/>
         <v>65</v>
@@ -8831,7 +8855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="6"/>
         <v>66</v>
@@ -8852,7 +8876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="6"/>
         <v>67</v>
@@ -8873,7 +8897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="6"/>
         <v>68</v>
@@ -8894,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="6"/>
         <v>69</v>
@@ -8915,7 +8939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -8936,7 +8960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="6"/>
         <v>71</v>
@@ -8957,7 +8981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="6"/>
         <v>72</v>
@@ -8978,7 +9002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="6"/>
         <v>73</v>
@@ -8999,7 +9023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="6"/>
         <v>74</v>
@@ -9020,7 +9044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="6"/>
         <v>75</v>
@@ -9041,7 +9065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="6"/>
         <v>76</v>
@@ -9062,7 +9086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="6"/>
         <v>77</v>
@@ -9083,7 +9107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="6"/>
         <v>78</v>
@@ -9104,7 +9128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="6"/>
         <v>79</v>
@@ -9125,7 +9149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="6"/>
         <v>80</v>
@@ -9146,7 +9170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="6"/>
         <v>81</v>
@@ -9167,7 +9191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="6"/>
         <v>82</v>
@@ -9188,7 +9212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="6"/>
         <v>83</v>
@@ -9209,7 +9233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="6"/>
         <v>84</v>
@@ -9230,7 +9254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="6"/>
         <v>85</v>
@@ -9251,7 +9275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="6"/>
         <v>86</v>
@@ -9272,7 +9296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="6"/>
         <v>87</v>
@@ -9293,7 +9317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="6"/>
         <v>88</v>
@@ -9314,7 +9338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="6"/>
         <v>89</v>
@@ -9335,7 +9359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="6"/>
         <v>90</v>
@@ -9356,7 +9380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="6"/>
         <v>91</v>
@@ -9377,7 +9401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" si="6"/>
         <v>92</v>
@@ -9398,7 +9422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" ref="A94:A121" si="7">ROW()-1</f>
         <v>93</v>
@@ -9419,7 +9443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="7"/>
         <v>94</v>
@@ -9440,7 +9464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="7"/>
         <v>95</v>
@@ -9461,7 +9485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="7"/>
         <v>96</v>
@@ -9482,7 +9506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" si="7"/>
         <v>97</v>
@@ -9503,7 +9527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" si="7"/>
         <v>98</v>
@@ -9524,7 +9548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" si="7"/>
         <v>99</v>
@@ -9545,7 +9569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="7"/>
         <v>100</v>
@@ -9566,7 +9590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <f t="shared" si="7"/>
         <v>101</v>
@@ -9587,7 +9611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <f t="shared" si="7"/>
         <v>102</v>
@@ -9608,7 +9632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <f t="shared" si="7"/>
         <v>103</v>
@@ -9629,7 +9653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <f t="shared" si="7"/>
         <v>104</v>
@@ -9650,7 +9674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <f t="shared" si="7"/>
         <v>105</v>
@@ -9671,7 +9695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" si="7"/>
         <v>106</v>
@@ -9692,7 +9716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" si="7"/>
         <v>107</v>
@@ -9713,7 +9737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <f t="shared" si="7"/>
         <v>108</v>
@@ -9734,7 +9758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <f t="shared" si="7"/>
         <v>109</v>
@@ -9755,7 +9779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <f t="shared" si="7"/>
         <v>110</v>
@@ -9776,7 +9800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <f t="shared" si="7"/>
         <v>111</v>
@@ -9797,7 +9821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <f t="shared" si="7"/>
         <v>112</v>
@@ -9818,7 +9842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <f t="shared" si="7"/>
         <v>113</v>
@@ -9839,7 +9863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <f t="shared" si="7"/>
         <v>114</v>
@@ -9860,7 +9884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <f t="shared" si="7"/>
         <v>115</v>
@@ -9881,7 +9905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <f t="shared" si="7"/>
         <v>116</v>
@@ -9902,7 +9926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <f t="shared" si="7"/>
         <v>117</v>
@@ -9923,7 +9947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <f t="shared" si="7"/>
         <v>118</v>
@@ -9944,7 +9968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <f t="shared" si="7"/>
         <v>119</v>
@@ -9965,7 +9989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <f t="shared" si="7"/>
         <v>120</v>
@@ -9986,7 +10010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <f t="shared" ref="A122:A153" si="8">ROW()-1</f>
         <v>121</v>
@@ -10007,7 +10031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <f t="shared" si="8"/>
         <v>122</v>
@@ -10028,7 +10052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <f t="shared" si="8"/>
         <v>123</v>
@@ -10049,7 +10073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <f t="shared" si="8"/>
         <v>124</v>
@@ -10070,7 +10094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <f t="shared" si="8"/>
         <v>125</v>
@@ -10091,7 +10115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <f t="shared" si="8"/>
         <v>126</v>
@@ -10112,7 +10136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <f t="shared" si="8"/>
         <v>127</v>
@@ -10133,7 +10157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <f t="shared" si="8"/>
         <v>128</v>
@@ -10154,7 +10178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <f t="shared" si="8"/>
         <v>129</v>
@@ -10175,7 +10199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <f t="shared" si="8"/>
         <v>130</v>
@@ -10196,7 +10220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <f t="shared" si="8"/>
         <v>131</v>
@@ -10217,7 +10241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <f t="shared" si="8"/>
         <v>132</v>
@@ -10238,7 +10262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <f t="shared" si="8"/>
         <v>133</v>
@@ -10259,7 +10283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <f t="shared" si="8"/>
         <v>134</v>
@@ -10280,7 +10304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <f t="shared" si="8"/>
         <v>135</v>
@@ -10301,7 +10325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <f t="shared" si="8"/>
         <v>136</v>
@@ -10322,7 +10346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <f t="shared" si="8"/>
         <v>137</v>
@@ -10343,7 +10367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <f t="shared" si="8"/>
         <v>138</v>
@@ -10364,7 +10388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <f t="shared" si="8"/>
         <v>139</v>
@@ -10385,7 +10409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <f t="shared" si="8"/>
         <v>140</v>
@@ -10406,7 +10430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <f t="shared" si="8"/>
         <v>141</v>
@@ -10427,7 +10451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <f t="shared" si="8"/>
         <v>142</v>
@@ -10448,7 +10472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <f t="shared" si="8"/>
         <v>143</v>
@@ -10469,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <f t="shared" si="8"/>
         <v>144</v>
@@ -10490,7 +10514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <f t="shared" si="8"/>
         <v>145</v>
@@ -10511,7 +10535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <f t="shared" si="8"/>
         <v>146</v>
@@ -10532,7 +10556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <f t="shared" si="8"/>
         <v>147</v>
@@ -10553,7 +10577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <f t="shared" si="8"/>
         <v>148</v>
@@ -10574,7 +10598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <f t="shared" si="8"/>
         <v>149</v>
@@ -10595,7 +10619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <f t="shared" si="8"/>
         <v>150</v>
@@ -10616,7 +10640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <f t="shared" si="8"/>
         <v>151</v>
@@ -10637,7 +10661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <f t="shared" si="8"/>
         <v>152</v>
@@ -10658,7 +10682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <f t="shared" ref="A154:A181" si="9">ROW()-1</f>
         <v>153</v>
@@ -10679,7 +10703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <f t="shared" si="9"/>
         <v>154</v>
@@ -10700,7 +10724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <f t="shared" si="9"/>
         <v>155</v>
@@ -10721,7 +10745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <f t="shared" si="9"/>
         <v>156</v>
@@ -10742,7 +10766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <f t="shared" si="9"/>
         <v>157</v>
@@ -10763,7 +10787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <f t="shared" si="9"/>
         <v>158</v>
@@ -10784,7 +10808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <f t="shared" si="9"/>
         <v>159</v>
@@ -10805,7 +10829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <f t="shared" si="9"/>
         <v>160</v>
@@ -10826,7 +10850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <f t="shared" si="9"/>
         <v>161</v>
@@ -10847,7 +10871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <f t="shared" si="9"/>
         <v>162</v>
@@ -10868,7 +10892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <f t="shared" si="9"/>
         <v>163</v>
@@ -10889,7 +10913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <f t="shared" si="9"/>
         <v>164</v>
@@ -10910,7 +10934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <f t="shared" si="9"/>
         <v>165</v>
@@ -10931,7 +10955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <f t="shared" si="9"/>
         <v>166</v>
@@ -10952,7 +10976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <f t="shared" si="9"/>
         <v>167</v>
@@ -10973,7 +10997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <f t="shared" si="9"/>
         <v>168</v>
@@ -10994,7 +11018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <f t="shared" si="9"/>
         <v>169</v>
@@ -11015,7 +11039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <f t="shared" si="9"/>
         <v>170</v>
@@ -11036,7 +11060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <f t="shared" si="9"/>
         <v>171</v>
@@ -11057,7 +11081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <f t="shared" si="9"/>
         <v>172</v>
@@ -11078,7 +11102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <f t="shared" si="9"/>
         <v>173</v>
@@ -11099,7 +11123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <f t="shared" si="9"/>
         <v>174</v>
@@ -11120,7 +11144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <f t="shared" si="9"/>
         <v>175</v>
@@ -11141,7 +11165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <f t="shared" si="9"/>
         <v>176</v>
@@ -11162,7 +11186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <f t="shared" si="9"/>
         <v>177</v>
@@ -11183,7 +11207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <f t="shared" si="9"/>
         <v>178</v>
@@ -11204,7 +11228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <f t="shared" si="9"/>
         <v>179</v>
@@ -11225,7 +11249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <f t="shared" si="9"/>
         <v>180</v>
@@ -11246,7 +11270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <f t="shared" ref="A182:A213" si="10">ROW()-1</f>
         <v>181</v>
@@ -11267,7 +11291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <f t="shared" si="10"/>
         <v>182</v>
@@ -11288,7 +11312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <f t="shared" si="10"/>
         <v>183</v>
@@ -11309,7 +11333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <f t="shared" si="10"/>
         <v>184</v>
@@ -11330,7 +11354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <f t="shared" si="10"/>
         <v>185</v>
@@ -11351,7 +11375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <f t="shared" si="10"/>
         <v>186</v>
@@ -11372,7 +11396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <f t="shared" si="10"/>
         <v>187</v>
@@ -11393,7 +11417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <f t="shared" si="10"/>
         <v>188</v>
@@ -11414,7 +11438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <f t="shared" si="10"/>
         <v>189</v>
@@ -11435,7 +11459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <f t="shared" si="10"/>
         <v>190</v>
@@ -11456,7 +11480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <f t="shared" si="10"/>
         <v>191</v>
@@ -11477,7 +11501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <f t="shared" si="10"/>
         <v>192</v>
@@ -11498,7 +11522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <f t="shared" si="10"/>
         <v>193</v>
@@ -11519,7 +11543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <f t="shared" si="10"/>
         <v>194</v>
@@ -11540,7 +11564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <f t="shared" si="10"/>
         <v>195</v>
@@ -11561,7 +11585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <f t="shared" si="10"/>
         <v>196</v>
@@ -11582,7 +11606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <f t="shared" si="10"/>
         <v>197</v>
@@ -11603,7 +11627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <f t="shared" si="10"/>
         <v>198</v>
@@ -11624,7 +11648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <f t="shared" si="10"/>
         <v>199</v>
@@ -11645,7 +11669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <f t="shared" si="10"/>
         <v>200</v>
@@ -11666,7 +11690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <f t="shared" si="10"/>
         <v>201</v>
@@ -11687,7 +11711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <f t="shared" si="10"/>
         <v>202</v>
@@ -11708,7 +11732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <f t="shared" si="10"/>
         <v>203</v>
@@ -11729,7 +11753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
         <f t="shared" si="10"/>
         <v>204</v>
@@ -11750,7 +11774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <f t="shared" si="10"/>
         <v>205</v>
@@ -11771,7 +11795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
         <f t="shared" si="10"/>
         <v>206</v>
@@ -11792,7 +11816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
         <f t="shared" si="10"/>
         <v>207</v>
@@ -11813,7 +11837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
         <f t="shared" si="10"/>
         <v>208</v>
@@ -11834,7 +11858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <f t="shared" si="10"/>
         <v>209</v>
@@ -11855,7 +11879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <f t="shared" si="10"/>
         <v>210</v>
@@ -11876,7 +11900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
         <f t="shared" si="10"/>
         <v>211</v>
@@ -11897,7 +11921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
         <f t="shared" si="10"/>
         <v>212</v>
@@ -11918,7 +11942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
         <f t="shared" ref="A214:A241" si="11">ROW()-1</f>
         <v>213</v>
@@ -11939,7 +11963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <f t="shared" si="11"/>
         <v>214</v>
@@ -11960,7 +11984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
         <f t="shared" si="11"/>
         <v>215</v>
@@ -11981,7 +12005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
         <f t="shared" si="11"/>
         <v>216</v>
@@ -12002,7 +12026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
         <f t="shared" si="11"/>
         <v>217</v>
@@ -12023,7 +12047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
         <f t="shared" si="11"/>
         <v>218</v>
@@ -12044,7 +12068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
         <f t="shared" si="11"/>
         <v>219</v>
@@ -12065,7 +12089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <f t="shared" si="11"/>
         <v>220</v>
@@ -12086,7 +12110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
         <f t="shared" si="11"/>
         <v>221</v>
@@ -12107,7 +12131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
         <f t="shared" si="11"/>
         <v>222</v>
@@ -12128,7 +12152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <f t="shared" si="11"/>
         <v>223</v>
@@ -12149,7 +12173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
         <f t="shared" si="11"/>
         <v>224</v>
@@ -12170,7 +12194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
         <f t="shared" si="11"/>
         <v>225</v>
@@ -12191,7 +12215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227">
         <f t="shared" si="11"/>
         <v>226</v>
@@ -12212,7 +12236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228">
         <f t="shared" si="11"/>
         <v>227</v>
@@ -12233,7 +12257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229">
         <f t="shared" si="11"/>
         <v>228</v>
@@ -12254,7 +12278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
         <f t="shared" si="11"/>
         <v>229</v>
@@ -12275,7 +12299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231">
         <f t="shared" si="11"/>
         <v>230</v>
@@ -12296,7 +12320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
         <f t="shared" si="11"/>
         <v>231</v>
@@ -12317,7 +12341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233">
         <f t="shared" si="11"/>
         <v>232</v>
@@ -12338,7 +12362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234">
         <f t="shared" si="11"/>
         <v>233</v>
@@ -12359,7 +12383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235">
         <f t="shared" si="11"/>
         <v>234</v>
@@ -12380,7 +12404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236">
         <f t="shared" si="11"/>
         <v>235</v>
@@ -12401,7 +12425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237">
         <f t="shared" si="11"/>
         <v>236</v>
@@ -12422,7 +12446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238">
         <f t="shared" si="11"/>
         <v>237</v>
@@ -12443,7 +12467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239">
         <f t="shared" si="11"/>
         <v>238</v>
@@ -12464,7 +12488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
         <f t="shared" si="11"/>
         <v>239</v>
@@ -12485,7 +12509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241">
         <f t="shared" si="11"/>
         <v>240</v>
@@ -12506,7 +12530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242">
         <f t="shared" ref="A242:A273" si="12">ROW()-1</f>
         <v>241</v>
@@ -12527,7 +12551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243">
         <f t="shared" si="12"/>
         <v>242</v>
@@ -12548,7 +12572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
         <f t="shared" si="12"/>
         <v>243</v>
@@ -12569,7 +12593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
         <f t="shared" si="12"/>
         <v>244</v>
@@ -12590,7 +12614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246">
         <f t="shared" si="12"/>
         <v>245</v>
@@ -12611,7 +12635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247">
         <f t="shared" si="12"/>
         <v>246</v>
@@ -12632,7 +12656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
         <f t="shared" si="12"/>
         <v>247</v>
@@ -12653,7 +12677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249">
         <f t="shared" si="12"/>
         <v>248</v>
@@ -12674,7 +12698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250">
         <f t="shared" si="12"/>
         <v>249</v>
@@ -12695,7 +12719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
         <f t="shared" si="12"/>
         <v>250</v>
@@ -12716,7 +12740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
         <f t="shared" si="12"/>
         <v>251</v>
@@ -12737,7 +12761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
         <f t="shared" si="12"/>
         <v>252</v>
@@ -12758,7 +12782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254">
         <f t="shared" si="12"/>
         <v>253</v>
@@ -12779,7 +12803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
         <f t="shared" si="12"/>
         <v>254</v>
@@ -12800,7 +12824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
         <f t="shared" si="12"/>
         <v>255</v>
@@ -12821,7 +12845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257">
         <f t="shared" si="12"/>
         <v>256</v>
@@ -12842,7 +12866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
         <f t="shared" si="12"/>
         <v>257</v>
@@ -12863,7 +12887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
         <f t="shared" si="12"/>
         <v>258</v>
@@ -12884,7 +12908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
         <f t="shared" si="12"/>
         <v>259</v>
@@ -12905,7 +12929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
         <f t="shared" si="12"/>
         <v>260</v>
@@ -12926,7 +12950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262">
         <f t="shared" si="12"/>
         <v>261</v>
@@ -12947,7 +12971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263">
         <f t="shared" si="12"/>
         <v>262</v>
@@ -12968,7 +12992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264">
         <f t="shared" si="12"/>
         <v>263</v>
@@ -12989,7 +13013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265">
         <f t="shared" si="12"/>
         <v>264</v>
@@ -13010,7 +13034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266">
         <f t="shared" si="12"/>
         <v>265</v>
@@ -13031,7 +13055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267">
         <f t="shared" si="12"/>
         <v>266</v>
@@ -13052,7 +13076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268">
         <f t="shared" si="12"/>
         <v>267</v>
@@ -13073,7 +13097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269">
         <f t="shared" si="12"/>
         <v>268</v>
@@ -13094,7 +13118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270">
         <f t="shared" si="12"/>
         <v>269</v>
@@ -13115,7 +13139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271">
         <f t="shared" si="12"/>
         <v>270</v>
@@ -13136,7 +13160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272">
         <f t="shared" si="12"/>
         <v>271</v>
@@ -13157,7 +13181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273">
         <f t="shared" si="12"/>
         <v>272</v>
@@ -13178,7 +13202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274">
         <f t="shared" ref="A274:A301" si="13">ROW()-1</f>
         <v>273</v>
@@ -13199,7 +13223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275">
         <f t="shared" si="13"/>
         <v>274</v>
@@ -13220,7 +13244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276">
         <f t="shared" si="13"/>
         <v>275</v>
@@ -13241,7 +13265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277">
         <f t="shared" si="13"/>
         <v>276</v>
@@ -13262,7 +13286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278">
         <f t="shared" si="13"/>
         <v>277</v>
@@ -13283,7 +13307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279">
         <f t="shared" si="13"/>
         <v>278</v>
@@ -13304,7 +13328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280">
         <f t="shared" si="13"/>
         <v>279</v>
@@ -13325,7 +13349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281">
         <f t="shared" si="13"/>
         <v>280</v>
@@ -13346,7 +13370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282">
         <f t="shared" si="13"/>
         <v>281</v>
@@ -13367,7 +13391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283">
         <f t="shared" si="13"/>
         <v>282</v>
@@ -13388,7 +13412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284">
         <f t="shared" si="13"/>
         <v>283</v>
@@ -13409,7 +13433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285">
         <f t="shared" si="13"/>
         <v>284</v>
@@ -13430,7 +13454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286">
         <f t="shared" si="13"/>
         <v>285</v>
@@ -13451,7 +13475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287">
         <f t="shared" si="13"/>
         <v>286</v>
@@ -13472,7 +13496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288">
         <f t="shared" si="13"/>
         <v>287</v>
@@ -13493,7 +13517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289">
         <f t="shared" si="13"/>
         <v>288</v>
@@ -13514,7 +13538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290">
         <f t="shared" si="13"/>
         <v>289</v>
@@ -13535,7 +13559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291">
         <f t="shared" si="13"/>
         <v>290</v>
@@ -13556,7 +13580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292">
         <f t="shared" si="13"/>
         <v>291</v>
@@ -13577,7 +13601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293">
         <f t="shared" si="13"/>
         <v>292</v>
@@ -13598,7 +13622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294">
         <f t="shared" si="13"/>
         <v>293</v>
@@ -13619,7 +13643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295">
         <f t="shared" si="13"/>
         <v>294</v>
@@ -13640,7 +13664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296">
         <f t="shared" si="13"/>
         <v>295</v>
@@ -13661,7 +13685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297">
         <f t="shared" si="13"/>
         <v>296</v>
@@ -13682,7 +13706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298">
         <f t="shared" si="13"/>
         <v>297</v>
@@ -13703,7 +13727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299">
         <f t="shared" si="13"/>
         <v>298</v>
@@ -13724,7 +13748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300">
         <f t="shared" si="13"/>
         <v>299</v>
@@ -13745,7 +13769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301">
         <f t="shared" si="13"/>
         <v>300</v>
@@ -13766,7 +13790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302">
         <f t="shared" ref="A302:A365" si="14">ROW()-1</f>
         <v>301</v>
@@ -13787,7 +13811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303">
         <f t="shared" si="14"/>
         <v>302</v>
@@ -13808,7 +13832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304">
         <f t="shared" si="14"/>
         <v>303</v>
@@ -13829,7 +13853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305">
         <f t="shared" si="14"/>
         <v>304</v>
@@ -13850,7 +13874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306">
         <f t="shared" si="14"/>
         <v>305</v>
@@ -13871,7 +13895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307">
         <f t="shared" si="14"/>
         <v>306</v>
@@ -13892,7 +13916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308">
         <f t="shared" si="14"/>
         <v>307</v>
@@ -13913,7 +13937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309">
         <f t="shared" si="14"/>
         <v>308</v>
@@ -13934,7 +13958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310">
         <f t="shared" si="14"/>
         <v>309</v>
@@ -13955,7 +13979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311">
         <f t="shared" si="14"/>
         <v>310</v>
@@ -13976,7 +14000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312">
         <f t="shared" si="14"/>
         <v>311</v>
@@ -13997,7 +14021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313">
         <f t="shared" si="14"/>
         <v>312</v>
@@ -14018,7 +14042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314">
         <f t="shared" si="14"/>
         <v>313</v>
@@ -14039,7 +14063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315">
         <f t="shared" si="14"/>
         <v>314</v>
@@ -14060,7 +14084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316">
         <f t="shared" si="14"/>
         <v>315</v>
@@ -14081,7 +14105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317">
         <f t="shared" si="14"/>
         <v>316</v>
@@ -14102,7 +14126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318">
         <f t="shared" si="14"/>
         <v>317</v>
@@ -14123,7 +14147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319">
         <f t="shared" si="14"/>
         <v>318</v>
@@ -14144,7 +14168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320">
         <f t="shared" si="14"/>
         <v>319</v>
@@ -14165,7 +14189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321">
         <f t="shared" si="14"/>
         <v>320</v>
@@ -14186,7 +14210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322">
         <f t="shared" si="14"/>
         <v>321</v>
@@ -14203,11 +14227,11 @@
       <c r="E322" t="s">
         <v>2</v>
       </c>
-      <c r="F322" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F322" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323">
         <f t="shared" si="14"/>
         <v>322</v>
@@ -14224,11 +14248,11 @@
       <c r="E323" t="s">
         <v>2</v>
       </c>
-      <c r="F323" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F323" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324">
         <f t="shared" si="14"/>
         <v>323</v>
@@ -14245,11 +14269,11 @@
       <c r="E324" t="s">
         <v>2</v>
       </c>
-      <c r="F324" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F324" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325">
         <f t="shared" si="14"/>
         <v>324</v>
@@ -14266,11 +14290,11 @@
       <c r="E325" t="s">
         <v>2</v>
       </c>
-      <c r="F325" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F325" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326">
         <f t="shared" si="14"/>
         <v>325</v>
@@ -14287,11 +14311,11 @@
       <c r="E326" t="s">
         <v>2</v>
       </c>
-      <c r="F326" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F326" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327">
         <f t="shared" si="14"/>
         <v>326</v>
@@ -14308,11 +14332,11 @@
       <c r="E327" t="s">
         <v>2</v>
       </c>
-      <c r="F327" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F327" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328">
         <f t="shared" si="14"/>
         <v>327</v>
@@ -14329,11 +14353,11 @@
       <c r="E328" t="s">
         <v>2</v>
       </c>
-      <c r="F328" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F328" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329">
         <f t="shared" si="14"/>
         <v>328</v>
@@ -14350,11 +14374,11 @@
       <c r="E329" t="s">
         <v>2</v>
       </c>
-      <c r="F329" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F329" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330">
         <f t="shared" si="14"/>
         <v>329</v>
@@ -14371,11 +14395,11 @@
       <c r="E330" t="s">
         <v>2</v>
       </c>
-      <c r="F330" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="F330" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A331">
         <f t="shared" si="14"/>
         <v>330</v>
@@ -14392,11 +14416,11 @@
       <c r="E331" t="s">
         <v>2</v>
       </c>
-      <c r="F331" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F331" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332">
         <f t="shared" si="14"/>
         <v>331</v>
@@ -14417,7 +14441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333">
         <f t="shared" si="14"/>
         <v>332</v>
@@ -14438,7 +14462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334">
         <f t="shared" si="14"/>
         <v>333</v>
@@ -14459,7 +14483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335">
         <f t="shared" si="14"/>
         <v>334</v>
@@ -14480,7 +14504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336">
         <f t="shared" si="14"/>
         <v>335</v>
@@ -14501,7 +14525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337">
         <f t="shared" si="14"/>
         <v>336</v>
@@ -14522,7 +14546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338">
         <f t="shared" si="14"/>
         <v>337</v>
@@ -14543,7 +14567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339">
         <f t="shared" si="14"/>
         <v>338</v>
@@ -14564,7 +14588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340">
         <f t="shared" si="14"/>
         <v>339</v>
@@ -14585,7 +14609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341">
         <f t="shared" si="14"/>
         <v>340</v>
@@ -14606,7 +14630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342">
         <f t="shared" si="14"/>
         <v>341</v>
@@ -14627,7 +14651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343">
         <f t="shared" si="14"/>
         <v>342</v>
@@ -14648,7 +14672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344">
         <f t="shared" si="14"/>
         <v>343</v>
@@ -14669,7 +14693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345">
         <f t="shared" si="14"/>
         <v>344</v>
@@ -14690,7 +14714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346">
         <f t="shared" si="14"/>
         <v>345</v>
@@ -14711,7 +14735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347">
         <f t="shared" si="14"/>
         <v>346</v>
@@ -14732,7 +14756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348">
         <f t="shared" si="14"/>
         <v>347</v>
@@ -14753,7 +14777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349">
         <f t="shared" si="14"/>
         <v>348</v>
@@ -14774,7 +14798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350">
         <f t="shared" si="14"/>
         <v>349</v>
@@ -14795,7 +14819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351">
         <f t="shared" si="14"/>
         <v>350</v>
@@ -14816,7 +14840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352">
         <f t="shared" si="14"/>
         <v>351</v>
@@ -14837,7 +14861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353">
         <f t="shared" si="14"/>
         <v>352</v>
@@ -14858,7 +14882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354">
         <f t="shared" si="14"/>
         <v>353</v>
@@ -14879,7 +14903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355">
         <f t="shared" si="14"/>
         <v>354</v>
@@ -14900,7 +14924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356">
         <f t="shared" si="14"/>
         <v>355</v>
@@ -14921,7 +14945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357">
         <f t="shared" si="14"/>
         <v>356</v>
@@ -14942,7 +14966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358">
         <f t="shared" si="14"/>
         <v>357</v>
@@ -14963,7 +14987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359">
         <f t="shared" si="14"/>
         <v>358</v>
@@ -14984,7 +15008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360">
         <f t="shared" si="14"/>
         <v>359</v>
@@ -15005,7 +15029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361">
         <f t="shared" si="14"/>
         <v>360</v>
@@ -15026,7 +15050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362">
         <f t="shared" si="14"/>
         <v>361</v>
@@ -15047,7 +15071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363">
         <f t="shared" si="14"/>
         <v>362</v>
@@ -15068,7 +15092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364">
         <f t="shared" si="14"/>
         <v>363</v>
@@ -15089,7 +15113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365">
         <f t="shared" si="14"/>
         <v>364</v>
@@ -15110,7 +15134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366">
         <f t="shared" ref="A366:A429" si="15">ROW()-1</f>
         <v>365</v>
@@ -15131,7 +15155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367">
         <f t="shared" si="15"/>
         <v>366</v>
@@ -15152,7 +15176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368">
         <f t="shared" si="15"/>
         <v>367</v>
@@ -15173,7 +15197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369">
         <f t="shared" si="15"/>
         <v>368</v>
@@ -15194,7 +15218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370">
         <f t="shared" si="15"/>
         <v>369</v>
@@ -15215,7 +15239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371">
         <f t="shared" si="15"/>
         <v>370</v>
@@ -15236,7 +15260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372">
         <f t="shared" si="15"/>
         <v>371</v>
@@ -15257,7 +15281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373">
         <f t="shared" si="15"/>
         <v>372</v>
@@ -15278,7 +15302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374">
         <f t="shared" si="15"/>
         <v>373</v>
@@ -15299,7 +15323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375">
         <f t="shared" si="15"/>
         <v>374</v>
@@ -15320,7 +15344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376">
         <f t="shared" si="15"/>
         <v>375</v>
@@ -15341,7 +15365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377">
         <f t="shared" si="15"/>
         <v>376</v>
@@ -15362,7 +15386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378">
         <f t="shared" si="15"/>
         <v>377</v>
@@ -15383,7 +15407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379">
         <f t="shared" si="15"/>
         <v>378</v>
@@ -15404,7 +15428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380">
         <f t="shared" si="15"/>
         <v>379</v>
@@ -15425,7 +15449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381">
         <f t="shared" si="15"/>
         <v>380</v>
@@ -15446,7 +15470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382">
         <f t="shared" si="15"/>
         <v>381</v>
@@ -15467,7 +15491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383">
         <f t="shared" si="15"/>
         <v>382</v>
@@ -15488,7 +15512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384">
         <f t="shared" si="15"/>
         <v>383</v>
@@ -15509,7 +15533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385">
         <f t="shared" si="15"/>
         <v>384</v>
@@ -15530,7 +15554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386">
         <f t="shared" si="15"/>
         <v>385</v>
@@ -15551,7 +15575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387">
         <f t="shared" si="15"/>
         <v>386</v>
@@ -15572,7 +15596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388">
         <f t="shared" si="15"/>
         <v>387</v>
@@ -15593,7 +15617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389">
         <f t="shared" si="15"/>
         <v>388</v>
@@ -15614,7 +15638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390">
         <f t="shared" si="15"/>
         <v>389</v>
@@ -15635,7 +15659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391">
         <f t="shared" si="15"/>
         <v>390</v>
@@ -15656,7 +15680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392">
         <f t="shared" si="15"/>
         <v>391</v>
@@ -15677,7 +15701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393">
         <f t="shared" si="15"/>
         <v>392</v>
@@ -15698,7 +15722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394">
         <f t="shared" si="15"/>
         <v>393</v>
@@ -15719,7 +15743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395">
         <f t="shared" si="15"/>
         <v>394</v>
@@ -15740,7 +15764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396">
         <f t="shared" si="15"/>
         <v>395</v>
@@ -15761,7 +15785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397">
         <f t="shared" si="15"/>
         <v>396</v>
@@ -15782,7 +15806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398">
         <f t="shared" si="15"/>
         <v>397</v>
@@ -15803,7 +15827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399">
         <f t="shared" si="15"/>
         <v>398</v>
@@ -15824,7 +15848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400">
         <f t="shared" si="15"/>
         <v>399</v>
@@ -15845,7 +15869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401">
         <f t="shared" si="15"/>
         <v>400</v>
@@ -15866,7 +15890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402">
         <f t="shared" si="15"/>
         <v>401</v>
@@ -15887,7 +15911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403">
         <f t="shared" si="15"/>
         <v>402</v>
@@ -15908,7 +15932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404">
         <f t="shared" si="15"/>
         <v>403</v>
@@ -15929,7 +15953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405">
         <f t="shared" si="15"/>
         <v>404</v>
@@ -15950,7 +15974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406">
         <f t="shared" si="15"/>
         <v>405</v>
@@ -15971,7 +15995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407">
         <f t="shared" si="15"/>
         <v>406</v>
@@ -15992,7 +16016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408">
         <f t="shared" si="15"/>
         <v>407</v>
@@ -16013,7 +16037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409">
         <f t="shared" si="15"/>
         <v>408</v>
@@ -16034,7 +16058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410">
         <f t="shared" si="15"/>
         <v>409</v>
@@ -16055,7 +16079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411">
         <f t="shared" si="15"/>
         <v>410</v>
@@ -16076,7 +16100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412">
         <f t="shared" si="15"/>
         <v>411</v>
@@ -16097,7 +16121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413">
         <f t="shared" si="15"/>
         <v>412</v>
@@ -16118,7 +16142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414">
         <f t="shared" si="15"/>
         <v>413</v>
@@ -16139,7 +16163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415">
         <f t="shared" si="15"/>
         <v>414</v>
@@ -16160,7 +16184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416">
         <f t="shared" si="15"/>
         <v>415</v>
@@ -16181,7 +16205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417">
         <f t="shared" si="15"/>
         <v>416</v>
@@ -16202,7 +16226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418">
         <f t="shared" si="15"/>
         <v>417</v>
@@ -16223,7 +16247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419">
         <f t="shared" si="15"/>
         <v>418</v>
@@ -16244,7 +16268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420">
         <f t="shared" si="15"/>
         <v>419</v>
@@ -16265,7 +16289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421">
         <f t="shared" si="15"/>
         <v>420</v>
@@ -16286,7 +16310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422">
         <f t="shared" si="15"/>
         <v>421</v>
@@ -16307,7 +16331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423">
         <f t="shared" si="15"/>
         <v>422</v>
@@ -16328,7 +16352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424">
         <f t="shared" si="15"/>
         <v>423</v>
@@ -16349,7 +16373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425">
         <f t="shared" si="15"/>
         <v>424</v>
@@ -16370,7 +16394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426">
         <f t="shared" si="15"/>
         <v>425</v>
@@ -16391,7 +16415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427">
         <f t="shared" si="15"/>
         <v>426</v>
@@ -16412,7 +16436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428">
         <f t="shared" si="15"/>
         <v>427</v>
@@ -16433,7 +16457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429">
         <f t="shared" si="15"/>
         <v>428</v>
@@ -16454,7 +16478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430">
         <f t="shared" ref="A430:A493" si="16">ROW()-1</f>
         <v>429</v>
@@ -16475,7 +16499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431">
         <f t="shared" si="16"/>
         <v>430</v>
@@ -16496,7 +16520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432">
         <f t="shared" si="16"/>
         <v>431</v>
@@ -16517,7 +16541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433">
         <f t="shared" si="16"/>
         <v>432</v>
@@ -16538,7 +16562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434">
         <f t="shared" si="16"/>
         <v>433</v>
@@ -16559,7 +16583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435">
         <f t="shared" si="16"/>
         <v>434</v>
@@ -16580,7 +16604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436">
         <f t="shared" si="16"/>
         <v>435</v>
@@ -16601,7 +16625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437">
         <f t="shared" si="16"/>
         <v>436</v>
@@ -16622,7 +16646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438">
         <f t="shared" si="16"/>
         <v>437</v>
@@ -16643,7 +16667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439">
         <f t="shared" si="16"/>
         <v>438</v>
@@ -16664,7 +16688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440">
         <f t="shared" si="16"/>
         <v>439</v>
@@ -16685,7 +16709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441">
         <f t="shared" si="16"/>
         <v>440</v>
@@ -16706,7 +16730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442">
         <f t="shared" si="16"/>
         <v>441</v>
@@ -16727,7 +16751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443">
         <f t="shared" si="16"/>
         <v>442</v>
@@ -16748,7 +16772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444">
         <f t="shared" si="16"/>
         <v>443</v>
@@ -16769,7 +16793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445">
         <f t="shared" si="16"/>
         <v>444</v>
@@ -16790,7 +16814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446">
         <f t="shared" si="16"/>
         <v>445</v>
@@ -16811,7 +16835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447">
         <f t="shared" si="16"/>
         <v>446</v>
@@ -16832,7 +16856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448">
         <f t="shared" si="16"/>
         <v>447</v>
@@ -16853,7 +16877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449">
         <f t="shared" si="16"/>
         <v>448</v>
@@ -16874,7 +16898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450">
         <f t="shared" si="16"/>
         <v>449</v>
@@ -16895,7 +16919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451">
         <f t="shared" si="16"/>
         <v>450</v>
@@ -16916,7 +16940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452">
         <f t="shared" si="16"/>
         <v>451</v>
@@ -16937,7 +16961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453">
         <f t="shared" si="16"/>
         <v>452</v>
@@ -16958,7 +16982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454">
         <f t="shared" si="16"/>
         <v>453</v>
@@ -16979,7 +17003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455">
         <f t="shared" si="16"/>
         <v>454</v>
@@ -17000,7 +17024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456">
         <f t="shared" si="16"/>
         <v>455</v>
@@ -17021,7 +17045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457">
         <f t="shared" si="16"/>
         <v>456</v>
@@ -17042,7 +17066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458">
         <f t="shared" si="16"/>
         <v>457</v>
@@ -17063,7 +17087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459">
         <f t="shared" si="16"/>
         <v>458</v>
@@ -17084,7 +17108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460">
         <f t="shared" si="16"/>
         <v>459</v>
@@ -17105,7 +17129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461">
         <f t="shared" si="16"/>
         <v>460</v>
@@ -17126,7 +17150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462">
         <f t="shared" si="16"/>
         <v>461</v>
@@ -17147,7 +17171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463">
         <f t="shared" si="16"/>
         <v>462</v>
@@ -17168,7 +17192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464">
         <f t="shared" si="16"/>
         <v>463</v>
@@ -17189,7 +17213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465">
         <f t="shared" si="16"/>
         <v>464</v>
@@ -17210,7 +17234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466">
         <f t="shared" si="16"/>
         <v>465</v>
@@ -17231,7 +17255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467">
         <f t="shared" si="16"/>
         <v>466</v>
@@ -17252,7 +17276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468">
         <f t="shared" si="16"/>
         <v>467</v>
@@ -17273,7 +17297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469">
         <f t="shared" si="16"/>
         <v>468</v>
@@ -17294,7 +17318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470">
         <f t="shared" si="16"/>
         <v>469</v>
@@ -17315,7 +17339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471">
         <f t="shared" si="16"/>
         <v>470</v>
@@ -17336,7 +17360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472">
         <f t="shared" si="16"/>
         <v>471</v>
@@ -17357,7 +17381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473">
         <f t="shared" si="16"/>
         <v>472</v>
@@ -17378,7 +17402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474">
         <f t="shared" si="16"/>
         <v>473</v>
@@ -17399,7 +17423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475">
         <f t="shared" si="16"/>
         <v>474</v>
@@ -17420,7 +17444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476">
         <f t="shared" si="16"/>
         <v>475</v>
@@ -17441,7 +17465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477">
         <f t="shared" si="16"/>
         <v>476</v>
@@ -17462,7 +17486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478">
         <f t="shared" si="16"/>
         <v>477</v>
@@ -17483,7 +17507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479">
         <f t="shared" si="16"/>
         <v>478</v>
@@ -17504,7 +17528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480">
         <f t="shared" si="16"/>
         <v>479</v>
@@ -17525,7 +17549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481">
         <f t="shared" si="16"/>
         <v>480</v>
@@ -17546,7 +17570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482">
         <f t="shared" si="16"/>
         <v>481</v>
@@ -17567,7 +17591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483">
         <f t="shared" si="16"/>
         <v>482</v>
@@ -17588,7 +17612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484">
         <f t="shared" si="16"/>
         <v>483</v>
@@ -17609,7 +17633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485">
         <f t="shared" si="16"/>
         <v>484</v>
@@ -17630,7 +17654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486">
         <f t="shared" si="16"/>
         <v>485</v>
@@ -17651,7 +17675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487">
         <f t="shared" si="16"/>
         <v>486</v>
@@ -17672,7 +17696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488">
         <f t="shared" si="16"/>
         <v>487</v>
@@ -17693,7 +17717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489">
         <f t="shared" si="16"/>
         <v>488</v>
@@ -17714,7 +17738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490">
         <f t="shared" si="16"/>
         <v>489</v>
@@ -17735,7 +17759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491">
         <f t="shared" si="16"/>
         <v>490</v>
@@ -17756,7 +17780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492">
         <f t="shared" si="16"/>
         <v>491</v>
@@ -17777,7 +17801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493">
         <f t="shared" si="16"/>
         <v>492</v>
@@ -17798,7 +17822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494">
         <f t="shared" ref="A494:A557" si="17">ROW()-1</f>
         <v>493</v>
@@ -17819,7 +17843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495">
         <f t="shared" si="17"/>
         <v>494</v>
@@ -17840,7 +17864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496">
         <f t="shared" si="17"/>
         <v>495</v>
@@ -17861,7 +17885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497">
         <f t="shared" si="17"/>
         <v>496</v>
@@ -17882,7 +17906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498">
         <f t="shared" si="17"/>
         <v>497</v>
@@ -17903,7 +17927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499">
         <f t="shared" si="17"/>
         <v>498</v>
@@ -17924,7 +17948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500">
         <f t="shared" si="17"/>
         <v>499</v>
@@ -17945,7 +17969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501">
         <f t="shared" si="17"/>
         <v>500</v>
@@ -17966,7 +17990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502">
         <f t="shared" si="17"/>
         <v>501</v>
@@ -17987,7 +18011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503">
         <f t="shared" si="17"/>
         <v>502</v>
@@ -18008,7 +18032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504">
         <f t="shared" si="17"/>
         <v>503</v>
@@ -18029,7 +18053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505">
         <f t="shared" si="17"/>
         <v>504</v>
@@ -18050,7 +18074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506">
         <f t="shared" si="17"/>
         <v>505</v>
@@ -18071,7 +18095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507">
         <f t="shared" si="17"/>
         <v>506</v>
@@ -18092,7 +18116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508">
         <f t="shared" si="17"/>
         <v>507</v>
@@ -18113,7 +18137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509">
         <f t="shared" si="17"/>
         <v>508</v>
@@ -18134,7 +18158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510">
         <f t="shared" si="17"/>
         <v>509</v>
@@ -18155,7 +18179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511">
         <f t="shared" si="17"/>
         <v>510</v>
@@ -18176,7 +18200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512">
         <f t="shared" si="17"/>
         <v>511</v>
@@ -18197,7 +18221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513">
         <f t="shared" si="17"/>
         <v>512</v>
@@ -18218,7 +18242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514">
         <f t="shared" si="17"/>
         <v>513</v>
@@ -18239,7 +18263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515">
         <f t="shared" si="17"/>
         <v>514</v>
@@ -18260,7 +18284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516">
         <f t="shared" si="17"/>
         <v>515</v>
@@ -18281,7 +18305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517">
         <f t="shared" si="17"/>
         <v>516</v>
@@ -18302,7 +18326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518">
         <f t="shared" si="17"/>
         <v>517</v>
@@ -18323,7 +18347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519">
         <f t="shared" si="17"/>
         <v>518</v>
@@ -18344,7 +18368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520">
         <f t="shared" si="17"/>
         <v>519</v>
@@ -18365,7 +18389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521">
         <f t="shared" si="17"/>
         <v>520</v>
@@ -18386,7 +18410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522">
         <f t="shared" si="17"/>
         <v>521</v>
@@ -18407,7 +18431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523">
         <f t="shared" si="17"/>
         <v>522</v>
@@ -18428,7 +18452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524">
         <f t="shared" si="17"/>
         <v>523</v>
@@ -18449,7 +18473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525">
         <f t="shared" si="17"/>
         <v>524</v>
@@ -18470,7 +18494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526">
         <f t="shared" si="17"/>
         <v>525</v>
@@ -18491,7 +18515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527">
         <f t="shared" si="17"/>
         <v>526</v>
@@ -18512,7 +18536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528">
         <f t="shared" si="17"/>
         <v>527</v>
@@ -18533,7 +18557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529">
         <f t="shared" si="17"/>
         <v>528</v>
@@ -18554,7 +18578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530">
         <f t="shared" si="17"/>
         <v>529</v>
@@ -18575,7 +18599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531">
         <f t="shared" si="17"/>
         <v>530</v>
@@ -18596,7 +18620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532">
         <f t="shared" si="17"/>
         <v>531</v>
@@ -18617,7 +18641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533">
         <f t="shared" si="17"/>
         <v>532</v>
@@ -18638,7 +18662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534">
         <f t="shared" si="17"/>
         <v>533</v>
@@ -18659,7 +18683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535">
         <f t="shared" si="17"/>
         <v>534</v>
@@ -18680,7 +18704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536">
         <f t="shared" si="17"/>
         <v>535</v>
@@ -18701,7 +18725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537">
         <f t="shared" si="17"/>
         <v>536</v>
@@ -18722,7 +18746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538">
         <f t="shared" si="17"/>
         <v>537</v>
@@ -18743,7 +18767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539">
         <f t="shared" si="17"/>
         <v>538</v>
@@ -18764,7 +18788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540">
         <f t="shared" si="17"/>
         <v>539</v>
@@ -18785,7 +18809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541">
         <f t="shared" si="17"/>
         <v>540</v>
@@ -18806,7 +18830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542">
         <f t="shared" si="17"/>
         <v>541</v>
@@ -18827,7 +18851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543">
         <f t="shared" si="17"/>
         <v>542</v>
@@ -18848,7 +18872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544">
         <f t="shared" si="17"/>
         <v>543</v>
@@ -18869,7 +18893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545">
         <f t="shared" si="17"/>
         <v>544</v>
@@ -18890,7 +18914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546">
         <f t="shared" si="17"/>
         <v>545</v>
@@ -18911,7 +18935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547">
         <f t="shared" si="17"/>
         <v>546</v>
@@ -18932,7 +18956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548">
         <f t="shared" si="17"/>
         <v>547</v>
@@ -18953,7 +18977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549">
         <f t="shared" si="17"/>
         <v>548</v>
@@ -18974,7 +18998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550">
         <f t="shared" si="17"/>
         <v>549</v>
@@ -18995,7 +19019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551">
         <f t="shared" si="17"/>
         <v>550</v>
@@ -19016,7 +19040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552">
         <f t="shared" si="17"/>
         <v>551</v>
@@ -19037,7 +19061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553">
         <f t="shared" si="17"/>
         <v>552</v>
@@ -19058,7 +19082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554">
         <f t="shared" si="17"/>
         <v>553</v>
@@ -19079,7 +19103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555">
         <f t="shared" si="17"/>
         <v>554</v>
@@ -19100,7 +19124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556">
         <f t="shared" si="17"/>
         <v>555</v>
@@ -19121,7 +19145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557">
         <f t="shared" si="17"/>
         <v>556</v>
@@ -19142,7 +19166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558">
         <f t="shared" ref="A558:A601" si="18">ROW()-1</f>
         <v>557</v>
@@ -19163,7 +19187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559">
         <f t="shared" si="18"/>
         <v>558</v>
@@ -19184,7 +19208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560">
         <f t="shared" si="18"/>
         <v>559</v>
@@ -19205,7 +19229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561">
         <f t="shared" si="18"/>
         <v>560</v>
@@ -19226,7 +19250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562">
         <f t="shared" si="18"/>
         <v>561</v>
@@ -19247,7 +19271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563">
         <f t="shared" si="18"/>
         <v>562</v>
@@ -19268,7 +19292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564">
         <f t="shared" si="18"/>
         <v>563</v>
@@ -19289,7 +19313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565">
         <f t="shared" si="18"/>
         <v>564</v>
@@ -19310,7 +19334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566">
         <f t="shared" si="18"/>
         <v>565</v>
@@ -19331,7 +19355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567">
         <f t="shared" si="18"/>
         <v>566</v>
@@ -19352,7 +19376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568">
         <f t="shared" si="18"/>
         <v>567</v>
@@ -19373,7 +19397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569">
         <f t="shared" si="18"/>
         <v>568</v>
@@ -19394,7 +19418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570">
         <f t="shared" si="18"/>
         <v>569</v>
@@ -19415,7 +19439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571">
         <f t="shared" si="18"/>
         <v>570</v>
@@ -19436,7 +19460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572">
         <f t="shared" si="18"/>
         <v>571</v>
@@ -19457,7 +19481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573">
         <f t="shared" si="18"/>
         <v>572</v>
@@ -19478,7 +19502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574">
         <f t="shared" si="18"/>
         <v>573</v>
@@ -19499,7 +19523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575">
         <f t="shared" si="18"/>
         <v>574</v>
@@ -19520,7 +19544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576">
         <f t="shared" si="18"/>
         <v>575</v>
@@ -19541,7 +19565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577">
         <f t="shared" si="18"/>
         <v>576</v>
@@ -19562,7 +19586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578">
         <f t="shared" si="18"/>
         <v>577</v>
@@ -19583,7 +19607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579">
         <f t="shared" si="18"/>
         <v>578</v>
@@ -19604,7 +19628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580">
         <f t="shared" si="18"/>
         <v>579</v>
@@ -19625,7 +19649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581">
         <f t="shared" si="18"/>
         <v>580</v>
@@ -19646,7 +19670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582">
         <f t="shared" si="18"/>
         <v>581</v>
@@ -19667,7 +19691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583">
         <f t="shared" si="18"/>
         <v>582</v>
@@ -19688,7 +19712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584">
         <f t="shared" si="18"/>
         <v>583</v>
@@ -19709,7 +19733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585">
         <f t="shared" si="18"/>
         <v>584</v>
@@ -19730,7 +19754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586">
         <f t="shared" si="18"/>
         <v>585</v>
@@ -19751,7 +19775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587">
         <f t="shared" si="18"/>
         <v>586</v>
@@ -19772,7 +19796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588">
         <f t="shared" si="18"/>
         <v>587</v>
@@ -19793,7 +19817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589">
         <f t="shared" si="18"/>
         <v>588</v>
@@ -19814,7 +19838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590">
         <f t="shared" si="18"/>
         <v>589</v>
@@ -19835,7 +19859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591">
         <f t="shared" si="18"/>
         <v>590</v>
@@ -19856,7 +19880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592">
         <f t="shared" si="18"/>
         <v>591</v>
@@ -19877,7 +19901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593">
         <f t="shared" si="18"/>
         <v>592</v>
@@ -19898,7 +19922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594">
         <f t="shared" si="18"/>
         <v>593</v>
@@ -19919,7 +19943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A595">
         <f t="shared" si="18"/>
         <v>594</v>
@@ -19940,7 +19964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596">
         <f t="shared" si="18"/>
         <v>595</v>
@@ -19961,7 +19985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A597">
         <f t="shared" si="18"/>
         <v>596</v>
@@ -19982,7 +20006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A598">
         <f t="shared" si="18"/>
         <v>597</v>
@@ -20003,7 +20027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599">
         <f t="shared" si="18"/>
         <v>598</v>
@@ -20024,7 +20048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A600">
         <f t="shared" si="18"/>
         <v>599</v>
@@ -20045,7 +20069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A601">
         <f t="shared" si="18"/>
         <v>600</v>
@@ -20079,26 +20103,26 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B19"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.9453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B2">
@@ -20111,101 +20135,101 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="7">
         <v>3.78</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="7">
         <v>3.25</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="7">
         <v>3.6285714285714286</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <v>3.32</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="7">
         <v>3.3</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="7">
         <v>3.3142857142857145</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>2.9</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <v>3.4</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="7">
         <v>3.0428571428571427</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>3.48</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="7">
         <v>3.65</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>3.5285714285714285</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <v>3.78</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>3.05</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="7">
         <v>3.5714285714285716</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>2.14</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <v>2.75</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="7">
         <v>2.3142857142857145</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <v>3.2333333333333334</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="7">
         <v>3.2333333333333334</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="7">
         <v>3.2333333333333334</v>
       </c>
     </row>
@@ -20218,17 +20242,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF60E3F-8B91-43BE-94C0-C9191F167483}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7890625" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -20239,7 +20263,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -20250,7 +20274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -20261,7 +20285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -20272,7 +20296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -20283,7 +20307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -20294,7 +20318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -20305,7 +20329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -20316,7 +20340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -20327,7 +20351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -20338,7 +20362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -20349,7 +20373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -20360,7 +20384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -20371,7 +20395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -20382,7 +20406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -20393,7 +20417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -20404,7 +20428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -20415,7 +20439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -20426,7 +20450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -20437,7 +20461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -20448,7 +20472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -20459,7 +20483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -20470,7 +20494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -20481,7 +20505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -20492,7 +20516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -20503,7 +20527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -20514,7 +20538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -20525,7 +20549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -20536,7 +20560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -20547,7 +20571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -20558,7 +20582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -20574,6 +20598,18 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB7FEA74-A9BB-448A-92DE-07989B366054}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -20585,29 +20621,29 @@
       <selection activeCell="F4" sqref="F4:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" ht="150.30000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" ht="150.30000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -20648,7 +20684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>259</v>
       </c>
@@ -20671,7 +20707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>262</v>
       </c>
@@ -20694,7 +20730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>263</v>
       </c>
@@ -20717,7 +20753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>266</v>
       </c>
@@ -20740,7 +20776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>261</v>
       </c>
@@ -20763,7 +20799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>269</v>
       </c>
@@ -20786,7 +20822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>272</v>
       </c>
@@ -20809,7 +20845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>274</v>
       </c>
@@ -20832,7 +20868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>271</v>
       </c>
@@ -20855,7 +20891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>267</v>
       </c>
@@ -20899,29 +20935,29 @@
       <selection activeCell="F4" sqref="F4:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -20962,7 +20998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>201</v>
       </c>
@@ -20985,7 +21021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -21008,7 +21044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -21031,7 +21067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -21054,7 +21090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>210</v>
       </c>
@@ -21077,7 +21113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>204</v>
       </c>
@@ -21100,7 +21136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>214</v>
       </c>
@@ -21123,7 +21159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -21146,7 +21182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -21169,7 +21205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -21207,35 +21243,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E557E0-1F20-4119-BBDF-3D1851626748}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A14"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" ht="86.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -21276,7 +21312,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -21299,7 +21335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -21322,7 +21358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -21345,7 +21381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -21368,7 +21404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -21391,7 +21427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -21414,7 +21450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -21437,7 +21473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -21460,7 +21496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -21483,7 +21519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -21504,6 +21540,21 @@
       </c>
       <c r="N14">
         <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -21527,29 +21578,29 @@
       <selection activeCell="A4" sqref="A4:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" ht="123.3" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" ht="123.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -21590,7 +21641,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -21613,7 +21664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>175</v>
       </c>
@@ -21636,7 +21687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -21659,7 +21710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>179</v>
       </c>
@@ -21682,7 +21733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -21705,7 +21756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>187</v>
       </c>
@@ -21728,7 +21779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>191</v>
       </c>
@@ -21751,7 +21802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>132</v>
       </c>
@@ -21774,7 +21825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -21797,7 +21848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>198</v>
       </c>
@@ -21841,40 +21892,40 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.578125" customWidth="1"/>
-    <col min="3" max="3" width="11.578125" customWidth="1"/>
-    <col min="6" max="6" width="11.3125" customWidth="1"/>
-    <col min="8" max="8" width="13.3125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.89453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.3671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.1015625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1015625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" ht="89.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" ht="89.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -21915,7 +21966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -21956,7 +22007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -21997,7 +22048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -22038,7 +22089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -22079,7 +22130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -22120,7 +22171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -22161,7 +22212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -22202,7 +22253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -22243,7 +22294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -22284,7 +22335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -22347,29 +22398,29 @@
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" ht="128.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -22410,7 +22461,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>232</v>
       </c>
@@ -22451,7 +22502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>237</v>
       </c>
@@ -22492,7 +22543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>240</v>
       </c>
@@ -22533,7 +22584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>243</v>
       </c>
@@ -22574,7 +22625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>242</v>
       </c>
@@ -22615,7 +22666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -22656,7 +22707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -22697,7 +22748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>252</v>
       </c>
@@ -22738,7 +22789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>255</v>
       </c>
@@ -22779,7 +22830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>257</v>
       </c>
@@ -22840,33 +22891,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D58E53-A678-4857-8263-050432BF76B9}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:M17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" ht="144.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" ht="144.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -22907,7 +22958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>148</v>
       </c>
@@ -22948,7 +22999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -22989,7 +23040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>149</v>
       </c>
@@ -23030,7 +23081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -23071,7 +23122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -23112,7 +23163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>160</v>
       </c>
@@ -23153,7 +23204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -23194,7 +23245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>159</v>
       </c>
@@ -23235,7 +23286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -23276,7 +23327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>171</v>
       </c>
@@ -23337,33 +23388,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B39C2CF-8E8E-4FE3-99BB-3272C07101FF}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" ht="201.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:14" ht="201.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -23404,7 +23455,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -23445,7 +23496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -23486,7 +23537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -23527,7 +23578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -23568,7 +23619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -23609,7 +23660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -23650,7 +23701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -23691,7 +23742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -23732,7 +23783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -23773,7 +23824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>120</v>
       </c>
